--- a/4.Analysis/Data/raw/day1/phase_003/select_day1_phase_003.xlsx
+++ b/4.Analysis/Data/raw/day1/phase_003/select_day1_phase_003.xlsx
@@ -155,7 +155,10 @@
     <t xml:space="preserve">yes</t>
   </si>
   <si>
-    <t xml:space="preserve"/>
+    <t xml:space="preserve">10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1</t>
   </si>
   <si>
     <t xml:space="preserve">phase_003_subj_13</t>
@@ -417,9 +420,6 @@
   </si>
   <si>
     <t xml:space="preserve">	770196006494277634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10</t>
   </si>
   <si>
     <t xml:space="preserve">	韩寒</t>
@@ -974,10 +974,10 @@
         <v>47</v>
       </c>
       <c r="Y2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Z2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AA2" t="n">
         <v>671</v>
@@ -985,19 +985,19 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F3" t="s">
         <v>32</v>
@@ -1006,7 +1006,7 @@
         <v>33</v>
       </c>
       <c r="H3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I3" t="s">
         <v>35</v>
@@ -1045,10 +1045,10 @@
         <v>42</v>
       </c>
       <c r="U3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="V3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W3" t="s">
         <v>46</v>
@@ -1057,10 +1057,10 @@
         <v>47</v>
       </c>
       <c r="Y3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Z3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AA3" t="n">
         <v>60</v>
@@ -1068,19 +1068,19 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F4" t="s">
         <v>32</v>
@@ -1089,7 +1089,7 @@
         <v>33</v>
       </c>
       <c r="H4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I4" t="s">
         <v>35</v>
@@ -1128,10 +1128,10 @@
         <v>42</v>
       </c>
       <c r="U4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="V4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="W4" t="s">
         <v>46</v>
@@ -1140,10 +1140,10 @@
         <v>47</v>
       </c>
       <c r="Y4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Z4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AA4" t="n">
         <v>470</v>
@@ -1151,19 +1151,19 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F5" t="s">
         <v>32</v>
@@ -1172,7 +1172,7 @@
         <v>33</v>
       </c>
       <c r="H5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I5" t="s">
         <v>35</v>
@@ -1211,10 +1211,10 @@
         <v>42</v>
       </c>
       <c r="U5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="V5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W5" t="s">
         <v>46</v>
@@ -1223,10 +1223,10 @@
         <v>47</v>
       </c>
       <c r="Y5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Z5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA5" t="n">
         <v>148</v>
@@ -1234,19 +1234,19 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F6" t="s">
         <v>32</v>
@@ -1255,7 +1255,7 @@
         <v>33</v>
       </c>
       <c r="H6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I6" t="s">
         <v>35</v>
@@ -1297,7 +1297,7 @@
         <v>42</v>
       </c>
       <c r="V6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W6" t="s">
         <v>46</v>
@@ -1306,10 +1306,10 @@
         <v>47</v>
       </c>
       <c r="Y6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Z6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AA6" t="n">
         <v>216</v>
@@ -1317,19 +1317,19 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F7" t="s">
         <v>32</v>
@@ -1338,7 +1338,7 @@
         <v>33</v>
       </c>
       <c r="H7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I7" t="s">
         <v>35</v>
@@ -1359,7 +1359,7 @@
         <v>38</v>
       </c>
       <c r="O7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P7" t="s">
         <v>40</v>
@@ -1377,10 +1377,10 @@
         <v>42</v>
       </c>
       <c r="U7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="V7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="W7" t="s">
         <v>46</v>
@@ -1389,10 +1389,10 @@
         <v>47</v>
       </c>
       <c r="Y7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Z7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AA7" t="n">
         <v>693</v>
@@ -1400,19 +1400,19 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F8" t="s">
         <v>32</v>
@@ -1421,7 +1421,7 @@
         <v>33</v>
       </c>
       <c r="H8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I8" t="s">
         <v>35</v>
@@ -1460,10 +1460,10 @@
         <v>42</v>
       </c>
       <c r="U8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="V8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="W8" t="s">
         <v>46</v>
@@ -1472,10 +1472,10 @@
         <v>47</v>
       </c>
       <c r="Y8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Z8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AA8" t="n">
         <v>584</v>
@@ -1483,19 +1483,19 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F9" t="s">
         <v>32</v>
@@ -1504,7 +1504,7 @@
         <v>33</v>
       </c>
       <c r="H9" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I9" t="s">
         <v>35</v>
@@ -1513,7 +1513,7 @@
         <v>41</v>
       </c>
       <c r="K9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L9" t="s">
         <v>37</v>
@@ -1525,7 +1525,7 @@
         <v>37</v>
       </c>
       <c r="O9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P9" t="s">
         <v>40</v>
@@ -1543,10 +1543,10 @@
         <v>42</v>
       </c>
       <c r="U9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="V9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="W9" t="s">
         <v>46</v>
@@ -1555,10 +1555,10 @@
         <v>47</v>
       </c>
       <c r="Y9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Z9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AA9" t="n">
         <v>396</v>
@@ -1566,19 +1566,19 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B10" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C10" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D10" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E10" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F10" t="s">
         <v>32</v>
@@ -1587,7 +1587,7 @@
         <v>33</v>
       </c>
       <c r="H10" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I10" t="s">
         <v>35</v>
@@ -1608,7 +1608,7 @@
         <v>38</v>
       </c>
       <c r="O10" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P10" t="s">
         <v>40</v>
@@ -1626,10 +1626,10 @@
         <v>42</v>
       </c>
       <c r="U10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="V10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="W10" t="s">
         <v>46</v>
@@ -1638,10 +1638,10 @@
         <v>47</v>
       </c>
       <c r="Y10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Z10" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AA10" t="n">
         <v>403</v>
@@ -1649,19 +1649,19 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B11" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C11" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D11" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E11" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F11" t="s">
         <v>32</v>
@@ -1670,7 +1670,7 @@
         <v>33</v>
       </c>
       <c r="H11" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I11" t="s">
         <v>35</v>
@@ -1712,7 +1712,7 @@
         <v>42</v>
       </c>
       <c r="V11" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="W11" t="s">
         <v>46</v>
@@ -1721,10 +1721,10 @@
         <v>47</v>
       </c>
       <c r="Y11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Z11" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AA11" t="n">
         <v>60</v>
@@ -1732,19 +1732,19 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B12" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C12" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D12" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E12" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F12" t="s">
         <v>32</v>
@@ -1753,7 +1753,7 @@
         <v>33</v>
       </c>
       <c r="H12" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I12" t="s">
         <v>35</v>
@@ -1792,10 +1792,10 @@
         <v>42</v>
       </c>
       <c r="U12" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="V12" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="W12" t="s">
         <v>46</v>
@@ -1804,10 +1804,10 @@
         <v>47</v>
       </c>
       <c r="Y12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Z12" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AA12" t="n">
         <v>569</v>
@@ -1815,10 +1815,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B13" t="s">
-        <v>135</v>
+        <v>47</v>
       </c>
       <c r="C13" t="s">
         <v>136</v>
@@ -1875,7 +1875,7 @@
         <v>42</v>
       </c>
       <c r="U13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="V13" t="s">
         <v>140</v>
@@ -1887,7 +1887,7 @@
         <v>47</v>
       </c>
       <c r="Y13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Z13" t="s">
         <v>141</v>
@@ -1970,7 +1970,7 @@
         <v>47</v>
       </c>
       <c r="Y14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Z14" t="s">
         <v>152</v>
@@ -2053,7 +2053,7 @@
         <v>47</v>
       </c>
       <c r="Y15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Z15" t="s">
         <v>152</v>
